--- a/medicine/Sexualité et sexologie/Le_Consentement_(film)/Le_Consentement_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Le_Consentement_(film)/Le_Consentement_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Consentement est un film franco-belge réalisé par Vanessa Filho, sorti en 2023. 
 Adaptation cinématographique du récit autobiographique de Vanessa Springora portant le même titre, le film reçoit un accueil favorable d'un public jeune. Après cinq semaines de diffusion il comptabilise plus de 500 000 entrées.
@@ -512,11 +524,13 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film raconte la relation d’emprise entre Vanessa Springora et l’écrivain pédophile Gabriel Matzneff au milieu des années 1980. Alors âgée de 14 ans, Vanessa devient l’amante du quinquagénaire manipulateur[1].
-Le film dénonce aussi la complicité passive voire la « protection » dont a bénéficié Gabriel Matzneff auprès du « milieu intellectuel parisien », alors qu'il s'affichait ouvertement comme pédophile dans ses ouvrages et dans les médias[2].
-Il s'agit de l'adaptation cinématographique du livre éponyme[3] de Vanessa Springora.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film raconte la relation d’emprise entre Vanessa Springora et l’écrivain pédophile Gabriel Matzneff au milieu des années 1980. Alors âgée de 14 ans, Vanessa devient l’amante du quinquagénaire manipulateur.
+Le film dénonce aussi la complicité passive voire la « protection » dont a bénéficié Gabriel Matzneff auprès du « milieu intellectuel parisien », alors qu'il s'affichait ouvertement comme pédophile dans ses ouvrages et dans les médias.
+Il s'agit de l'adaptation cinématographique du livre éponyme de Vanessa Springora.
 </t>
         </is>
       </c>
@@ -545,22 +559,24 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre français : Le Consentement
 Réalisation : Vanessa Filho
-Scénario : Vanessa Filho avec la collaboration de Vanessa Springora et François Pirot[4], d'après le livre de Vanessa Springora
+Scénario : Vanessa Filho avec la collaboration de Vanessa Springora et François Pirot, d'après le livre de Vanessa Springora
 Musique : Olivier Coursier et Audrey Ismael
 Photographie : Guillaume Schiffman
 Montage : Marion Monestier et Sophie Reine
 Décors : Edwige Le Carquet
 Costumes : Carine Sarfati
 Production : Carole Lambert et Marc Missonnier
-Sociétés de production : Moana Films et Windy Production[4], en coproduction avec Panache Productions, La Compagnie Cinématographique, France 2 Cinéma et Les Films du Monsieur
-Sociétés de distribution : Pan-Européenne, SND International (France)[4] Anga Distribution (Belgique)
-Budget : 3,7 millions d'euros[5]
-Pays de production :  France (80%),  Belgique (20%)[6]
+Sociétés de production : Moana Films et Windy Production, en coproduction avec Panache Productions, La Compagnie Cinématographique, France 2 Cinéma et Les Films du Monsieur
+Sociétés de distribution : Pan-Européenne, SND International (France) Anga Distribution (Belgique)
+Budget : 3,7 millions d'euros
+Pays de production :  France (80%),  Belgique (20%)
 Langue originale : français
 Format : couleurs
 Genre : drame
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Kim Higelin : Vanessa Springora adolescente
@@ -676,9 +694,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu du 16 mai au 30 juin 2022 et bénéficie d'un budget de 3,7 millions d'euros[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu du 16 mai au 30 juin 2022 et bénéficie d'un budget de 3,7 millions d'euros.
 </t>
         </is>
       </c>
@@ -709,13 +729,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critiques
-L'avis de la critique est divisé sur le film. Selon Michel Guerrin, rédacteur en chef du Monde, c'est en particulier « la façon de filmer le sexe, qui a tant divisé la critique »[8].
-Pour Sabine Gorny de France Info, Vanessa Filho reprend la trame du livre et réussit « à décortiquer le mécanisme de l’emprise et les techniques de manipulation du prédateur » Gabriel Matzneff[9]. Pour Jérôme Vermelin de LCI : la réalisatrice « donne une nouvelle dimension au malaise qu’on pouvait ressentir en parcourant le livre de Vanessa Springora ». Avec Le Consentement, Kim Higelin qui joue l'adolescente sera candidate au futur César de la révélation féminine[10]. 
-Par contre, selon Les Inrockuptibles la grande faiblesse du film est un manque de cohérence formelle et une réflexion non aboutie sur une question esthétique très délicate[11] tandis que Libération critique un film truffé d’outrances et d’archétypes pénibles, délesté de la finesse du texte original, inspirant le malaise[12].
-Box-office
-Après des débuts difficiles, Le Consentement réalise une carrière en salles atypique qui s’explique notamment par une mobilisation en sa faveur d'un public jeune, soutenue par le « bouche-à-oreille » sur TikTok[3],[8]. Les entrées suivent une croissance exponentielle alors qu'en général le nombre d'entrées d'un film s'essouffle dans le temps. Ainsi en octobre, en troisième semaine d'exploitation, son score au box office triple[13]. Après quatre semaines de diffusion, 418 186 entrées sont comptabilisées au 8 novembre 2023[14].
-Il passe le cap symbolique du demi million de spectateurs au bout de sa cinquième semaine en salles, remontant même en 9e place du box-office hebdomadaire avec 504 640 entrées cumulées à la date du 14 novembre 2023[15].
+          <t>Critiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'avis de la critique est divisé sur le film. Selon Michel Guerrin, rédacteur en chef du Monde, c'est en particulier « la façon de filmer le sexe, qui a tant divisé la critique ».
+Pour Sabine Gorny de France Info, Vanessa Filho reprend la trame du livre et réussit « à décortiquer le mécanisme de l’emprise et les techniques de manipulation du prédateur » Gabriel Matzneff. Pour Jérôme Vermelin de LCI : la réalisatrice « donne une nouvelle dimension au malaise qu’on pouvait ressentir en parcourant le livre de Vanessa Springora ». Avec Le Consentement, Kim Higelin qui joue l'adolescente sera candidate au futur César de la révélation féminine. 
+Par contre, selon Les Inrockuptibles la grande faiblesse du film est un manque de cohérence formelle et une réflexion non aboutie sur une question esthétique très délicate tandis que Libération critique un film truffé d’outrances et d’archétypes pénibles, délesté de la finesse du texte original, inspirant le malaise.
 </t>
         </is>
       </c>
@@ -741,13 +763,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des débuts difficiles, Le Consentement réalise une carrière en salles atypique qui s’explique notamment par une mobilisation en sa faveur d'un public jeune, soutenue par le « bouche-à-oreille » sur TikTok,. Les entrées suivent une croissance exponentielle alors qu'en général le nombre d'entrées d'un film s'essouffle dans le temps. Ainsi en octobre, en troisième semaine d'exploitation, son score au box office triple. Après quatre semaines de diffusion, 418 186 entrées sont comptabilisées au 8 novembre 2023.
+Il passe le cap symbolique du demi million de spectateurs au bout de sa cinquième semaine en salles, remontant même en 9e place du box-office hebdomadaire avec 504 640 entrées cumulées à la date du 14 novembre 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Consentement_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Consentement_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Nominations
-César 2024[17] :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>César 2024 :
 Révélation féminine pour Kim Higelin
 Meilleure adaptation pour Vanessa Filho, Vanessa Springora et François Pirot</t>
         </is>
